--- a/lib/external app launcher/Android Application ID/Android Application ID.xlsx
+++ b/lib/external app launcher/Android Application ID/Android Application ID.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\flutter\excel for Android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\flutter\lib\external app launcher\Android Application ID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91138BA0-0531-4424-8102-7D88B1646D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A7973-CC90-4961-969E-F5315E597D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>Default platform</t>
   </si>
@@ -42,7 +42,8 @@
     <t>Color tile #</t>
   </si>
   <si>
-    <t>Youtube</t>
+    <t>Android Application ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>youtube.com</t>
@@ -120,9 +121,6 @@
     <t>open.spotify.com</t>
   </si>
   <si>
-    <t>spotify</t>
-  </si>
-  <si>
     <t>#1ED760</t>
   </si>
   <si>
@@ -154,9 +152,6 @@
   </si>
   <si>
     <t>behance.com</t>
-  </si>
-  <si>
-    <t>behance</t>
   </si>
   <si>
     <t>#1769FF</t>
@@ -252,9 +247,6 @@
     <t>producthunt.com</t>
   </si>
   <si>
-    <t>producthunt</t>
-  </si>
-  <si>
     <t>#DA552F</t>
   </si>
   <si>
@@ -296,6 +288,98 @@
   <si>
     <t>#189AF5</t>
   </si>
+  <si>
+    <t>Whatsapp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.whatsapp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.facebook.katana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.instagram.android</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.googlequicksearchbox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.github.android</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.google.android.youtube</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.gitlab.terrakok.gitfox</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.medium.reader</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>spotify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.spotify.music</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>io.kodular.anujanand301201.Dribbble</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>behance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.behance.behance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.reddit.frontpage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apps.secondart.stackoverflow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>producthunt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.producthuntmobile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.W3school.offline</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Youtube</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.chrome.dev</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.sec.android.app.sbrowser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -310,19 +394,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -331,11 +402,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -372,19 +456,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -415,15 +494,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0365973F-243C-41F3-B90B-36749BDF1111}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1DC505D-FB2B-4EAA-9321-D44E87BDFD73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -446,7 +525,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="350520"/>
+          <a:off x="3108960" y="518160"/>
           <a:ext cx="274320" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -476,15 +555,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9F917FC-ED0D-42ED-AD58-37EBB7C7A6A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82C01C7-1980-4EF2-A4EB-41D8A94A46E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -507,7 +586,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="739140"/>
+          <a:off x="3108960" y="906780"/>
           <a:ext cx="274320" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -537,15 +616,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C6B188-01F3-4B8D-963D-CE0603D9F028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD84D9C3-FDB8-4C6F-981A-41CF55C5A5A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -568,7 +647,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="1127760"/>
+          <a:off x="3108960" y="1295400"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -598,15 +677,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B603FC63-46F1-4B6C-A2CB-BE7E82311067}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBF02D6-2F32-4048-BD5E-1E9011C1CD98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -629,7 +708,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="1516380"/>
+          <a:off x="3108960" y="1684020"/>
           <a:ext cx="213360" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -659,15 +738,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB6F02B-55EB-4397-B537-91CA3F5FFC37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CAEBDF-AF23-433D-A236-1CA2FF38D784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -690,7 +769,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="1905000"/>
+          <a:off x="3108960" y="2072640"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -720,15 +799,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B943F1-62EF-40C6-8A61-9948C4C37C2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE008FE-04AC-4745-9F7F-151A3F4B9A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -751,7 +830,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="2484120"/>
+          <a:off x="3108960" y="2651760"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -781,15 +860,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFA24F6-3270-40F8-B225-3913B7D7BB36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97201B20-E9B5-4288-AC82-98B4F4F942E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -812,7 +891,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="2872740"/>
+          <a:off x="3108960" y="3040380"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -842,15 +921,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EA9B73E-82FE-4389-A5D0-AC4852B5DEDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8ADD0B-1160-4479-AC0B-A9C250A75ADB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +952,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="3261360"/>
+          <a:off x="3108960" y="3429000"/>
           <a:ext cx="160020" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -903,15 +982,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A360164-7C9F-4E1A-AC89-3CD199DE1314}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4D457E-FD7F-4C90-9B07-F5DE5CC41410}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -934,7 +1013,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="3840480"/>
+          <a:off x="3108960" y="4008120"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -964,15 +1043,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3785C79-D068-4E03-BCFF-133BB322BAD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2EB823-E7FB-4CB1-B502-AC00E41E46F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,7 +1074,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="4229100"/>
+          <a:off x="3108960" y="4396740"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1025,15 +1104,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0574A290-674A-4E58-9798-0C7894AC4AB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AED41D-8489-44A2-900C-0954355193E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1135,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="4617720"/>
+          <a:off x="3108960" y="4785360"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1086,15 +1165,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="13" name="圖片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B3F342-6A2B-402A-9844-1B3F5975646A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9235A78D-3262-436A-B8E1-631CEDCFBF6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1196,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="5006340"/>
+          <a:off x="3108960" y="5173980"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1147,15 +1226,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="圖片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABAB89C4-872E-49B5-9ECD-1AED4352E338}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316973BE-5AAC-4527-959E-C769C74B2499}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,7 +1257,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="5394960"/>
+          <a:off x="3108960" y="5562600"/>
           <a:ext cx="388620" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1208,15 +1287,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="圖片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50661E14-0A2E-4B92-87D8-6C4CD9805F5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB762821-2613-4585-8E0A-32CFA6A01A5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1239,7 +1318,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="5783580"/>
+          <a:off x="3108960" y="5951220"/>
           <a:ext cx="441960" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1269,15 +1348,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="圖片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264B7D48-23A8-4E69-8F75-E43A278EDE0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7166A939-89DF-48AB-B09E-EC534FA9E35C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1379,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="6172200"/>
+          <a:off x="3108960" y="6339840"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1330,15 +1409,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="圖片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B087CEB7-F5B6-4E84-8C9F-F249DA73EFA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0ADE6C-B62C-46B9-9C67-80C7C78E9B25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1440,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="6560820"/>
+          <a:off x="3108960" y="6728460"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1391,15 +1470,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="圖片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1347BFCB-FDA2-4667-96AA-F77629478F86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACCE6819-EA22-492C-860E-6F24B68CB996}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,7 +1501,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="6949440"/>
+          <a:off x="3108960" y="7117080"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1452,15 +1531,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="19" name="圖片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A9EC3E-BBE2-433E-BC02-823D0684CCD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738A050A-2D5A-49EC-A7D4-213F9A4D5D12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1562,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="7338060"/>
+          <a:off x="3108960" y="7505700"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1513,15 +1592,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="20" name="圖片 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72144CBE-DD14-470C-9E6E-654B2179B347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3D84AC-6BA6-443A-A254-823E0EF1C5CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1623,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="7726680"/>
+          <a:off x="3108960" y="7894320"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1574,15 +1653,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="21" name="圖片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2106A8-4056-4401-93FF-BA3173E4E3B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D656C6D-10DC-4EB5-A250-89B5FE5C5546}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1684,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="8115300"/>
+          <a:off x="3108960" y="8282940"/>
           <a:ext cx="213360" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1643,7 +1722,7 @@
         <xdr:cNvPr id="22" name="圖片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540A52B6-31BC-4E46-8564-80752FEF53A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E53BCBD-193E-4AD5-857D-2CF25794855A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1745,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="8900160"/>
+          <a:off x="3108960" y="9067800"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1704,7 +1783,7 @@
         <xdr:cNvPr id="23" name="圖片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF7343B-14BC-406D-9583-7AE937DC3C6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854DDEF5-F95D-43CF-A12D-393BF783248A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,7 +1806,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="9098280"/>
+          <a:off x="3108960" y="9265920"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1757,15 +1836,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="24" name="圖片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{821D5E53-8D4B-4E5F-9CDE-3D302544C907}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18ACB499-8CE5-4E4C-997D-9D7137E55A22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1867,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="9296400"/>
+          <a:off x="3108960" y="9464040"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1818,15 +1897,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="25" name="圖片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E3E2DD-D8F3-4E3D-88B7-235BE423093B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F82CD7-9B5E-404C-A2E1-C0B6BE2F6F4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1928,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="12390120"/>
+          <a:off x="3108960" y="12557760"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1879,15 +1958,15 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="26" name="圖片 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996C6D70-75E7-4F55-AD71-254B434CBF51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00D3008A-E382-41F8-8952-1476A518B05A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,7 +1989,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1645920" y="12740640"/>
+          <a:off x="3108960" y="12908280"/>
           <a:ext cx="198120" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2198,13 +2277,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2220,7 +2308,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2242,11 +2332,11 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2256,7 +2346,9 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -2278,11 +2370,11 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2292,7 +2384,9 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -2314,11 +2408,11 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2328,7 +2422,9 @@
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2350,11 +2446,11 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2364,7 +2460,9 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2386,11 +2484,11 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2422,11 +2520,11 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2436,7 +2534,9 @@
       <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2458,21 +2558,23 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2494,19 +2596,19 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2530,21 +2632,23 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2566,21 +2670,23 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2602,21 +2708,23 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2638,21 +2746,23 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2674,21 +2784,23 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>54</v>
+      <c r="B14" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2710,21 +2822,23 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2746,21 +2860,23 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>62</v>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2782,21 +2898,23 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>66</v>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2818,21 +2936,23 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>70</v>
+      <c r="B18" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2854,21 +2974,23 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2890,21 +3012,23 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>78</v>
+      <c r="B20" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2926,21 +3050,23 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>82</v>
+      <c r="B21" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2963,12 +3089,16 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -3020,7 +3150,7 @@
     </row>
     <row r="24" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3050,13 +3180,15 @@
     </row>
     <row r="25" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -3078,17 +3210,19 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -3474,9 +3608,9 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3506,15 +3640,15 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -30391,28 +30525,28 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://www.youtube.com/" xr:uid="{E3B9FDFA-3EB5-4258-8680-9D8D3917C193}"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://www.medium.com/" xr:uid="{E327623D-41A7-4F1E-8A93-1338E2100581}"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://github.com/" xr:uid="{C4C8C298-509F-4098-B995-DA1B59DE1CEB}"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://gitlab.com/" xr:uid="{D99A05DD-DF82-4394-AA1C-9420AEEA497E}"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://podcasts.apple.com/" xr:uid="{B6F2D6B0-358F-4043-B276-6EB88F345DD6}"/>
-    <hyperlink ref="B7" r:id="rId6" display="https://podcasts.google.com/" xr:uid="{576D5D4A-9C91-402C-B929-0F01FA8BAF16}"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://open.spotify.com/" xr:uid="{B152F237-787B-4615-9238-0C41D3B0DDE2}"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://developer.apple.com/" xr:uid="{D46E3AC1-CD12-492F-A187-22B94C652D49}"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://dribbble.com/" xr:uid="{FB1DCA24-B86E-4AAA-8BD7-F7ED70D9A886}"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://behance.com/" xr:uid="{1E4BC453-B3AA-4FF7-B8DA-397D8B5F03FA}"/>
-    <hyperlink ref="B12" r:id="rId11" display="http://reddit.com/" xr:uid="{51DEA37D-FDDA-4F2F-AF5B-98FBFF76D31E}"/>
-    <hyperlink ref="B13" r:id="rId12" display="http://stackoverflow.com/" xr:uid="{6186D38D-EB6F-4852-9BDB-7B4D203A895E}"/>
-    <hyperlink ref="B14" r:id="rId13" display="http://techcrunch.com/" xr:uid="{6A8138CB-3DC2-471A-9D07-41C24D9BB1D0}"/>
-    <hyperlink ref="B15" r:id="rId14" display="http://kaggle.com/" xr:uid="{E0C884D0-F7F2-4113-80B2-C929953CC1A4}"/>
-    <hyperlink ref="B16" r:id="rId15" display="http://hackernoon.com/" xr:uid="{5821868D-D51C-4A20-BA18-DF0A1C78EAD4}"/>
-    <hyperlink ref="B17" r:id="rId16" display="http://facebook.com/" xr:uid="{9621F23A-7C95-4C8A-A936-5CA0A9B5FF9C}"/>
-    <hyperlink ref="B18" r:id="rId17" display="http://instagram.com/" xr:uid="{29486701-1668-45C6-B32E-45AF9714E477}"/>
-    <hyperlink ref="B19" r:id="rId18" display="http://producthunt.com/" xr:uid="{CCCF0F34-9C39-48A7-AA92-F6A6BCC16EA7}"/>
-    <hyperlink ref="B20" r:id="rId19" display="http://geeksforgeeks.org/" xr:uid="{44D789AD-FAFE-451B-A8C9-DFE83E2E0A57}"/>
-    <hyperlink ref="B21" r:id="rId20" display="https://www.w3schools.com/" xr:uid="{8E2DC9D2-3523-451A-B929-0F8BFAF79596}"/>
+    <hyperlink ref="B21" r:id="rId1" display="https://www.w3schools.com/" xr:uid="{F8C192A4-A540-48FC-AC99-54F0953D0769}"/>
+    <hyperlink ref="B20" r:id="rId2" display="http://geeksforgeeks.org/" xr:uid="{DE96BBEB-6253-4CEF-96A5-CB5463842C26}"/>
+    <hyperlink ref="B19" r:id="rId3" display="http://producthunt.com/" xr:uid="{2B890C6D-C5FF-4F36-A449-C2498E0984C0}"/>
+    <hyperlink ref="B18" r:id="rId4" display="http://instagram.com/" xr:uid="{17C58C07-E7AE-4C9D-A0B4-D8F7043854C3}"/>
+    <hyperlink ref="B17" r:id="rId5" display="http://facebook.com/" xr:uid="{E9B9B88F-AECD-435B-9095-8291393B3EED}"/>
+    <hyperlink ref="B16" r:id="rId6" display="http://hackernoon.com/" xr:uid="{44D7D3AD-3049-42BA-B7C7-2CC6567483A4}"/>
+    <hyperlink ref="B15" r:id="rId7" display="http://kaggle.com/" xr:uid="{1E51317A-65A5-4439-B2BB-EC67766E1E3C}"/>
+    <hyperlink ref="B14" r:id="rId8" display="http://techcrunch.com/" xr:uid="{4C56BFAC-C5BA-427B-A868-538B2E37D161}"/>
+    <hyperlink ref="B13" r:id="rId9" display="http://stackoverflow.com/" xr:uid="{D873E595-A296-41C4-BADC-2FDB1171224A}"/>
+    <hyperlink ref="B12" r:id="rId10" display="http://reddit.com/" xr:uid="{7ACBFB44-247F-4116-961B-5D66DC870ADA}"/>
+    <hyperlink ref="B11" r:id="rId11" display="http://behance.com/" xr:uid="{CE4720AF-ADDC-4540-8456-BAFBBA2F4441}"/>
+    <hyperlink ref="B10" r:id="rId12" display="http://dribbble.com/" xr:uid="{2742D0CE-A8EF-4404-8971-BAE84B945ED8}"/>
+    <hyperlink ref="B9" r:id="rId13" display="http://developer.apple.com/" xr:uid="{AF3E81FA-23B0-43A5-9217-9076E7A0507B}"/>
+    <hyperlink ref="B8" r:id="rId14" display="http://open.spotify.com/" xr:uid="{2F935BB5-5189-4192-B4CC-32D963D8CD78}"/>
+    <hyperlink ref="B7" r:id="rId15" display="https://podcasts.google.com/" xr:uid="{DBA0D22A-FCDB-4F3D-93AE-501600D8061F}"/>
+    <hyperlink ref="B6" r:id="rId16" display="http://podcasts.apple.com/" xr:uid="{649497A5-A144-49BF-87CE-81F895CD23CC}"/>
+    <hyperlink ref="B5" r:id="rId17" display="http://gitlab.com/" xr:uid="{1C071C67-5024-44A1-B4A5-CCA8FB5D5056}"/>
+    <hyperlink ref="B4" r:id="rId18" display="http://github.com/" xr:uid="{40E8A601-97AA-4DCC-99F7-54F6CAD075D5}"/>
+    <hyperlink ref="B3" r:id="rId19" display="http://www.medium.com/" xr:uid="{12309C19-D5CE-4D43-B65B-23F3CE9B01F7}"/>
+    <hyperlink ref="B2" r:id="rId20" display="http://www.youtube.com/" xr:uid="{CB53CBB6-FD98-40C6-B3CB-3859BBF3F825}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>

--- a/lib/external app launcher/Android Application ID/Android Application ID.xlsx
+++ b/lib/external app launcher/Android Application ID/Android Application ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\flutter\lib\external app launcher\Android Application ID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82A7973-CC90-4961-969E-F5315E597D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7882540D-6480-47D6-98BE-717180E8621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2278,21 +2278,21 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="44.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>107</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2446,7 +2446,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2520,7 +2520,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -2632,7 +2632,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -2670,7 +2670,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -2708,7 +2708,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -3012,7 +3012,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>74</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3148,7 +3148,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
@@ -3178,7 +3178,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>83</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
@@ -3244,7 +3244,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3272,7 +3272,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3300,7 +3300,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3328,7 +3328,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3356,7 +3356,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3384,7 +3384,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3412,7 +3412,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -3440,7 +3440,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -3468,7 +3468,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3496,7 +3496,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3524,7 +3524,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3552,7 +3552,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3580,7 +3580,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3608,7 +3608,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -3640,7 +3640,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -3672,7 +3672,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3700,7 +3700,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3728,7 +3728,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3756,7 +3756,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3784,7 +3784,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3812,7 +3812,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3840,7 +3840,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3868,7 +3868,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3896,7 +3896,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3924,7 +3924,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3952,7 +3952,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3980,7 +3980,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4008,7 +4008,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4036,7 +4036,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -4064,7 +4064,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4092,7 +4092,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4120,7 +4120,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -4148,7 +4148,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4176,7 +4176,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4204,7 +4204,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4232,7 +4232,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4260,7 +4260,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4288,7 +4288,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4316,7 +4316,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4344,7 +4344,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4372,7 +4372,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4400,7 +4400,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4428,7 +4428,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4456,7 +4456,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4484,7 +4484,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4512,7 +4512,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4540,7 +4540,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4568,7 +4568,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4596,7 +4596,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4624,7 +4624,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4652,7 +4652,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4680,7 +4680,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4708,7 +4708,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4736,7 +4736,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4764,7 +4764,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4792,7 +4792,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4820,7 +4820,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4848,7 +4848,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4876,7 +4876,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4904,7 +4904,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4932,7 +4932,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4960,7 +4960,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4988,7 +4988,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5016,7 +5016,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5044,7 +5044,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5072,7 +5072,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5100,7 +5100,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5128,7 +5128,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5156,7 +5156,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5184,7 +5184,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5212,7 +5212,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5240,7 +5240,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5268,7 +5268,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5296,7 +5296,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5324,7 +5324,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5352,7 +5352,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5380,7 +5380,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5408,7 +5408,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5436,7 +5436,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5464,7 +5464,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5492,7 +5492,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5520,7 +5520,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5548,7 +5548,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5576,7 +5576,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5604,7 +5604,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5632,7 +5632,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5660,7 +5660,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5688,7 +5688,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5716,7 +5716,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5744,7 +5744,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5772,7 +5772,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5800,7 +5800,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5828,7 +5828,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5856,7 +5856,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5884,7 +5884,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5912,7 +5912,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5940,7 +5940,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5968,7 +5968,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5996,7 +5996,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6024,7 +6024,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6052,7 +6052,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6080,7 +6080,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6108,7 +6108,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6136,7 +6136,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6164,7 +6164,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6192,7 +6192,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6220,7 +6220,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6248,7 +6248,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6276,7 +6276,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6304,7 +6304,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6332,7 +6332,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6360,7 +6360,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6388,7 +6388,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6416,7 +6416,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6444,7 +6444,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6472,7 +6472,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6500,7 +6500,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6528,7 +6528,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6556,7 +6556,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6584,7 +6584,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6612,7 +6612,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6640,7 +6640,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6668,7 +6668,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6696,7 +6696,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6724,7 +6724,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6752,7 +6752,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6780,7 +6780,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6808,7 +6808,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6836,7 +6836,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6864,7 +6864,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6892,7 +6892,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6920,7 +6920,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6948,7 +6948,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6976,7 +6976,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7004,7 +7004,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -7032,7 +7032,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -7060,7 +7060,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7088,7 +7088,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7116,7 +7116,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -7144,7 +7144,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7172,7 +7172,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7200,7 +7200,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7228,7 +7228,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7256,7 +7256,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7284,7 +7284,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7312,7 +7312,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7340,7 +7340,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7368,7 +7368,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7396,7 +7396,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7424,7 +7424,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7452,7 +7452,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7480,7 +7480,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7508,7 +7508,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7536,7 +7536,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7564,7 +7564,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7592,7 +7592,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7620,7 +7620,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7648,7 +7648,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7676,7 +7676,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7704,7 +7704,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7732,7 +7732,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7760,7 +7760,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7788,7 +7788,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7816,7 +7816,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7844,7 +7844,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7872,7 +7872,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7900,7 +7900,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7928,7 +7928,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7956,7 +7956,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7984,7 +7984,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -8012,7 +8012,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -8040,7 +8040,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -8068,7 +8068,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -8096,7 +8096,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -8124,7 +8124,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -8152,7 +8152,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -8180,7 +8180,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8208,7 +8208,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8236,7 +8236,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -8264,7 +8264,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -8292,7 +8292,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -8320,7 +8320,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -8348,7 +8348,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -8376,7 +8376,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -8404,7 +8404,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -8432,7 +8432,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -8460,7 +8460,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -8488,7 +8488,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -8516,7 +8516,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -8544,7 +8544,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -8572,7 +8572,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -8600,7 +8600,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8628,7 +8628,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8656,7 +8656,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8684,7 +8684,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -8712,7 +8712,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8740,7 +8740,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8768,7 +8768,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8796,7 +8796,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8824,7 +8824,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8852,7 +8852,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8880,7 +8880,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8908,7 +8908,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8936,7 +8936,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8964,7 +8964,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8992,7 +8992,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -9020,7 +9020,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -9048,7 +9048,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -9076,7 +9076,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -9104,7 +9104,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -9132,7 +9132,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -9160,7 +9160,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -9188,7 +9188,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -9216,7 +9216,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -9244,7 +9244,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -9272,7 +9272,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -9300,7 +9300,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -9328,7 +9328,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -9356,7 +9356,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -9384,7 +9384,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -9412,7 +9412,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -9440,7 +9440,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -9468,7 +9468,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -9496,7 +9496,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -9524,7 +9524,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -9552,7 +9552,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -9580,7 +9580,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -9608,7 +9608,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -9636,7 +9636,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -9664,7 +9664,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -9692,7 +9692,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -9720,7 +9720,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9748,7 +9748,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9776,7 +9776,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9804,7 +9804,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9832,7 +9832,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9860,7 +9860,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9888,7 +9888,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9916,7 +9916,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9944,7 +9944,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9972,7 +9972,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -10000,7 +10000,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -10028,7 +10028,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -10056,7 +10056,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -10084,7 +10084,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -10112,7 +10112,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -10140,7 +10140,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -10168,7 +10168,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -10196,7 +10196,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -10224,7 +10224,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -10252,7 +10252,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -10280,7 +10280,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -10308,7 +10308,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -10336,7 +10336,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -10364,7 +10364,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -10392,7 +10392,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -10420,7 +10420,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -10448,7 +10448,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -10476,7 +10476,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -10504,7 +10504,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -10532,7 +10532,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -10560,7 +10560,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -10588,7 +10588,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10616,7 +10616,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -10644,7 +10644,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -10672,7 +10672,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -10700,7 +10700,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -10728,7 +10728,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10756,7 +10756,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -10784,7 +10784,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -10812,7 +10812,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10840,7 +10840,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10868,7 +10868,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10896,7 +10896,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10924,7 +10924,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10952,7 +10952,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10980,7 +10980,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -11008,7 +11008,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -11036,7 +11036,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -11064,7 +11064,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -11092,7 +11092,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -11120,7 +11120,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -11148,7 +11148,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -11176,7 +11176,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -11204,7 +11204,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -11232,7 +11232,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -11260,7 +11260,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -11288,7 +11288,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -11316,7 +11316,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -11344,7 +11344,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -11372,7 +11372,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -11400,7 +11400,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -11428,7 +11428,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -11456,7 +11456,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -11484,7 +11484,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -11512,7 +11512,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -11540,7 +11540,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -11568,7 +11568,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -11596,7 +11596,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -11624,7 +11624,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -11652,7 +11652,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11680,7 +11680,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -11708,7 +11708,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11736,7 +11736,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -11764,7 +11764,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -11792,7 +11792,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -11820,7 +11820,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11848,7 +11848,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11876,7 +11876,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11904,7 +11904,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11932,7 +11932,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11960,7 +11960,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -11988,7 +11988,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -12016,7 +12016,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -12044,7 +12044,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -12072,7 +12072,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -12100,7 +12100,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -12128,7 +12128,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -12156,7 +12156,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -12184,7 +12184,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -12212,7 +12212,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -12240,7 +12240,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -12268,7 +12268,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -12296,7 +12296,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -12324,7 +12324,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -12352,7 +12352,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -12380,7 +12380,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -12408,7 +12408,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -12436,7 +12436,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -12464,7 +12464,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -12492,7 +12492,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -12520,7 +12520,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -12548,7 +12548,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -12576,7 +12576,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -12604,7 +12604,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -12632,7 +12632,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -12660,7 +12660,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -12688,7 +12688,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -12716,7 +12716,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -12744,7 +12744,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -12772,7 +12772,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -12800,7 +12800,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -12828,7 +12828,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12856,7 +12856,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12884,7 +12884,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12912,7 +12912,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12940,7 +12940,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12968,7 +12968,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12996,7 +12996,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -13024,7 +13024,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -13052,7 +13052,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -13080,7 +13080,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -13108,7 +13108,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -13136,7 +13136,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -13164,7 +13164,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -13192,7 +13192,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -13220,7 +13220,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -13248,7 +13248,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -13276,7 +13276,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -13304,7 +13304,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -13332,7 +13332,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -13360,7 +13360,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -13388,7 +13388,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -13416,7 +13416,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -13444,7 +13444,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -13472,7 +13472,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -13500,7 +13500,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -13528,7 +13528,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -13556,7 +13556,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -13584,7 +13584,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -13612,7 +13612,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -13640,7 +13640,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -13668,7 +13668,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -13696,7 +13696,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -13724,7 +13724,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -13752,7 +13752,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -13780,7 +13780,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -13808,7 +13808,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13836,7 +13836,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13864,7 +13864,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13892,7 +13892,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13920,7 +13920,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -13948,7 +13948,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -13976,7 +13976,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -14004,7 +14004,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -14032,7 +14032,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -14060,7 +14060,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -14088,7 +14088,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -14116,7 +14116,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -14144,7 +14144,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -14172,7 +14172,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -14200,7 +14200,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -14228,7 +14228,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -14256,7 +14256,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -14284,7 +14284,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -14312,7 +14312,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -14340,7 +14340,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -14368,7 +14368,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -14396,7 +14396,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -14424,7 +14424,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -14452,7 +14452,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -14480,7 +14480,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -14508,7 +14508,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -14536,7 +14536,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -14564,7 +14564,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -14592,7 +14592,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -14620,7 +14620,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -14648,7 +14648,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -14676,7 +14676,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -14704,7 +14704,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -14732,7 +14732,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -14760,7 +14760,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -14788,7 +14788,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -14816,7 +14816,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14844,7 +14844,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14872,7 +14872,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -14900,7 +14900,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -14928,7 +14928,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -14956,7 +14956,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -14984,7 +14984,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -15012,7 +15012,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -15040,7 +15040,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -15068,7 +15068,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -15096,7 +15096,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -15124,7 +15124,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -15152,7 +15152,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -15180,7 +15180,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -15208,7 +15208,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -15236,7 +15236,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -15264,7 +15264,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -15292,7 +15292,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -15320,7 +15320,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -15348,7 +15348,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -15376,7 +15376,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -15404,7 +15404,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -15432,7 +15432,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -15460,7 +15460,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -15488,7 +15488,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -15516,7 +15516,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -15544,7 +15544,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -15572,7 +15572,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -15600,7 +15600,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -15628,7 +15628,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -15656,7 +15656,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -15684,7 +15684,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -15712,7 +15712,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -15740,7 +15740,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -15768,7 +15768,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -15796,7 +15796,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -15824,7 +15824,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15852,7 +15852,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15880,7 +15880,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -15908,7 +15908,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -15936,7 +15936,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -15964,7 +15964,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -15992,7 +15992,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -16020,7 +16020,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -16048,7 +16048,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -16076,7 +16076,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -16104,7 +16104,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -16132,7 +16132,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -16160,7 +16160,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -16188,7 +16188,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -16216,7 +16216,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -16244,7 +16244,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -16272,7 +16272,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -16300,7 +16300,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -16328,7 +16328,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -16356,7 +16356,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -16384,7 +16384,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -16412,7 +16412,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -16440,7 +16440,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -16468,7 +16468,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -16496,7 +16496,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -16524,7 +16524,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -16552,7 +16552,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -16580,7 +16580,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -16608,7 +16608,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -16636,7 +16636,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -16664,7 +16664,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -16692,7 +16692,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -16720,7 +16720,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -16748,7 +16748,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -16776,7 +16776,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -16804,7 +16804,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -16832,7 +16832,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16860,7 +16860,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -16888,7 +16888,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -16916,7 +16916,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -16944,7 +16944,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -16972,7 +16972,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -17000,7 +17000,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -17028,7 +17028,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -17056,7 +17056,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -17084,7 +17084,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -17112,7 +17112,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -17140,7 +17140,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -17168,7 +17168,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -17196,7 +17196,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -17224,7 +17224,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -17252,7 +17252,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -17280,7 +17280,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17308,7 +17308,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17336,7 +17336,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17364,7 +17364,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17392,7 +17392,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17420,7 +17420,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17448,7 +17448,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17476,7 +17476,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17504,7 +17504,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17532,7 +17532,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17560,7 +17560,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17588,7 +17588,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17616,7 +17616,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17644,7 +17644,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -17672,7 +17672,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -17700,7 +17700,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -17728,7 +17728,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -17756,7 +17756,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -17784,7 +17784,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -17812,7 +17812,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17840,7 +17840,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17868,7 +17868,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -17896,7 +17896,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -17924,7 +17924,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -17952,7 +17952,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -17980,7 +17980,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -18008,7 +18008,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -18036,7 +18036,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -18064,7 +18064,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -18092,7 +18092,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -18120,7 +18120,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -18148,7 +18148,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -18176,7 +18176,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -18204,7 +18204,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -18232,7 +18232,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -18260,7 +18260,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -18288,7 +18288,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -18316,7 +18316,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -18344,7 +18344,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -18372,7 +18372,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -18400,7 +18400,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -18428,7 +18428,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -18456,7 +18456,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -18484,7 +18484,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -18512,7 +18512,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -18540,7 +18540,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -18568,7 +18568,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -18596,7 +18596,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -18624,7 +18624,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -18652,7 +18652,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -18680,7 +18680,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -18708,7 +18708,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -18736,7 +18736,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -18764,7 +18764,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -18792,7 +18792,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -18820,7 +18820,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18848,7 +18848,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18876,7 +18876,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -18904,7 +18904,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -18932,7 +18932,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -18960,7 +18960,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -18988,7 +18988,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -19016,7 +19016,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -19044,7 +19044,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -19072,7 +19072,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -19100,7 +19100,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -19128,7 +19128,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -19156,7 +19156,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -19184,7 +19184,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -19212,7 +19212,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -19240,7 +19240,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -19268,7 +19268,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -19296,7 +19296,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -19324,7 +19324,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -19352,7 +19352,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -19380,7 +19380,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -19408,7 +19408,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -19436,7 +19436,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -19464,7 +19464,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -19492,7 +19492,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -19520,7 +19520,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -19548,7 +19548,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -19576,7 +19576,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -19604,7 +19604,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -19632,7 +19632,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -19660,7 +19660,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -19688,7 +19688,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -19716,7 +19716,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -19744,7 +19744,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -19772,7 +19772,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -19800,7 +19800,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -19828,7 +19828,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19856,7 +19856,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19884,7 +19884,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -19912,7 +19912,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -19940,7 +19940,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -19968,7 +19968,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -19996,7 +19996,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -20024,7 +20024,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -20052,7 +20052,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -20080,7 +20080,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -20108,7 +20108,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -20136,7 +20136,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -20164,7 +20164,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -20192,7 +20192,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -20220,7 +20220,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20248,7 +20248,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20276,7 +20276,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20304,7 +20304,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20332,7 +20332,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20360,7 +20360,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20388,7 +20388,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20416,7 +20416,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20444,7 +20444,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -20472,7 +20472,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -20500,7 +20500,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -20528,7 +20528,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -20556,7 +20556,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -20584,7 +20584,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -20612,7 +20612,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -20640,7 +20640,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -20668,7 +20668,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -20696,7 +20696,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -20724,7 +20724,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -20752,7 +20752,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -20780,7 +20780,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -20808,7 +20808,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20836,7 +20836,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20864,7 +20864,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -20892,7 +20892,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -20920,7 +20920,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -20948,7 +20948,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -20976,7 +20976,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -21004,7 +21004,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -21032,7 +21032,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -21060,7 +21060,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -21088,7 +21088,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -21116,7 +21116,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -21144,7 +21144,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -21172,7 +21172,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -21200,7 +21200,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -21228,7 +21228,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -21256,7 +21256,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -21284,7 +21284,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -21312,7 +21312,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -21340,7 +21340,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -21368,7 +21368,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -21396,7 +21396,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -21424,7 +21424,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -21452,7 +21452,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -21480,7 +21480,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -21508,7 +21508,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -21536,7 +21536,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -21564,7 +21564,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -21592,7 +21592,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -21620,7 +21620,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -21648,7 +21648,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -21676,7 +21676,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -21704,7 +21704,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -21732,7 +21732,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -21760,7 +21760,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -21788,7 +21788,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -21816,7 +21816,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21844,7 +21844,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21872,7 +21872,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -21900,7 +21900,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -21928,7 +21928,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -21956,7 +21956,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -21984,7 +21984,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -22012,7 +22012,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -22040,7 +22040,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -22068,7 +22068,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -22096,7 +22096,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -22124,7 +22124,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -22152,7 +22152,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -22180,7 +22180,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -22208,7 +22208,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -22236,7 +22236,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -22264,7 +22264,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -22292,7 +22292,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -22320,7 +22320,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -22348,7 +22348,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -22376,7 +22376,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -22404,7 +22404,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -22432,7 +22432,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -22460,7 +22460,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -22488,7 +22488,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -22516,7 +22516,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -22544,7 +22544,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -22572,7 +22572,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -22600,7 +22600,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -22628,7 +22628,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -22656,7 +22656,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -22684,7 +22684,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -22712,7 +22712,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -22740,7 +22740,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -22768,7 +22768,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -22796,7 +22796,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -22824,7 +22824,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22852,7 +22852,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22880,7 +22880,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -22908,7 +22908,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -22936,7 +22936,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -22964,7 +22964,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -22992,7 +22992,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -23020,7 +23020,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -23048,7 +23048,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -23076,7 +23076,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -23104,7 +23104,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -23132,7 +23132,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -23160,7 +23160,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -23188,7 +23188,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -23216,7 +23216,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -23244,7 +23244,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -23272,7 +23272,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -23300,7 +23300,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -23328,7 +23328,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -23356,7 +23356,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -23384,7 +23384,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -23412,7 +23412,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -23440,7 +23440,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -23468,7 +23468,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -23496,7 +23496,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -23524,7 +23524,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -23552,7 +23552,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -23580,7 +23580,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -23608,7 +23608,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -23636,7 +23636,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -23664,7 +23664,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -23692,7 +23692,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -23720,7 +23720,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -23748,7 +23748,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -23776,7 +23776,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -23804,7 +23804,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -23832,7 +23832,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23860,7 +23860,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -23888,7 +23888,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -23916,7 +23916,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -23944,7 +23944,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -23972,7 +23972,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -24000,7 +24000,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -24028,7 +24028,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -24056,7 +24056,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -24084,7 +24084,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -24112,7 +24112,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -24140,7 +24140,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -24168,7 +24168,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -24196,7 +24196,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -24224,7 +24224,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -24252,7 +24252,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -24280,7 +24280,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -24308,7 +24308,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -24336,7 +24336,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -24364,7 +24364,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -24392,7 +24392,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -24420,7 +24420,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -24448,7 +24448,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -24476,7 +24476,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -24504,7 +24504,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -24532,7 +24532,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -24560,7 +24560,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -24588,7 +24588,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -24616,7 +24616,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -24644,7 +24644,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -24672,7 +24672,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -24700,7 +24700,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -24728,7 +24728,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -24756,7 +24756,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -24784,7 +24784,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -24812,7 +24812,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24840,7 +24840,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24868,7 +24868,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -24896,7 +24896,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -24924,7 +24924,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -24952,7 +24952,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -24980,7 +24980,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -25008,7 +25008,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -25036,7 +25036,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -25064,7 +25064,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -25092,7 +25092,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -25120,7 +25120,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -25148,7 +25148,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -25176,7 +25176,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -25204,7 +25204,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -25232,7 +25232,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -25260,7 +25260,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -25288,7 +25288,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -25316,7 +25316,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -25344,7 +25344,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -25372,7 +25372,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -25400,7 +25400,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -25428,7 +25428,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -25456,7 +25456,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -25484,7 +25484,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -25512,7 +25512,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -25540,7 +25540,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -25568,7 +25568,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -25596,7 +25596,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -25624,7 +25624,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -25652,7 +25652,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -25680,7 +25680,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -25708,7 +25708,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -25736,7 +25736,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -25764,7 +25764,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -25792,7 +25792,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -25820,7 +25820,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25848,7 +25848,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25876,7 +25876,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -25904,7 +25904,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -25932,7 +25932,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -25960,7 +25960,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -25988,7 +25988,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -26016,7 +26016,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -26044,7 +26044,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -26072,7 +26072,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -26100,7 +26100,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -26128,7 +26128,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -26156,7 +26156,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -26184,7 +26184,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -26212,7 +26212,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -26240,7 +26240,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -26268,7 +26268,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -26296,7 +26296,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -26324,7 +26324,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -26352,7 +26352,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -26380,7 +26380,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -26408,7 +26408,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -26436,7 +26436,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -26464,7 +26464,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -26492,7 +26492,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -26520,7 +26520,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -26548,7 +26548,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -26576,7 +26576,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -26604,7 +26604,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -26632,7 +26632,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -26660,7 +26660,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -26688,7 +26688,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -26716,7 +26716,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -26744,7 +26744,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -26772,7 +26772,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -26800,7 +26800,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -26828,7 +26828,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26856,7 +26856,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26884,7 +26884,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -26912,7 +26912,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -26940,7 +26940,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -26968,7 +26968,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -26996,7 +26996,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -27024,7 +27024,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -27052,7 +27052,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -27080,7 +27080,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -27108,7 +27108,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -27136,7 +27136,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -27164,7 +27164,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -27192,7 +27192,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -27220,7 +27220,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -27248,7 +27248,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -27276,7 +27276,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -27304,7 +27304,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -27332,7 +27332,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -27360,7 +27360,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -27388,7 +27388,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -27416,7 +27416,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -27444,7 +27444,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -27472,7 +27472,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -27500,7 +27500,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -27528,7 +27528,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -27556,7 +27556,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -27584,7 +27584,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -27612,7 +27612,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -27640,7 +27640,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -27668,7 +27668,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="899" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -27696,7 +27696,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="900" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -27724,7 +27724,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="901" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -27752,7 +27752,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="902" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -27780,7 +27780,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="903" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -27808,7 +27808,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="904" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27836,7 +27836,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="905" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27864,7 +27864,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="906" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -27892,7 +27892,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="907" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -27920,7 +27920,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="908" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -27948,7 +27948,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="909" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -27976,7 +27976,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="910" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -28004,7 +28004,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="911" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -28032,7 +28032,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="912" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -28060,7 +28060,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -28088,7 +28088,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="914" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -28116,7 +28116,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="915" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -28144,7 +28144,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="916" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -28172,7 +28172,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="917" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -28200,7 +28200,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="918" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -28228,7 +28228,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="919" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -28256,7 +28256,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="920" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -28284,7 +28284,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="921" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -28312,7 +28312,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -28340,7 +28340,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -28368,7 +28368,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -28396,7 +28396,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -28424,7 +28424,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -28452,7 +28452,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -28480,7 +28480,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -28508,7 +28508,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -28536,7 +28536,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="930" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -28564,7 +28564,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -28592,7 +28592,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="932" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -28620,7 +28620,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="933" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -28648,7 +28648,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="934" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -28676,7 +28676,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="935" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -28704,7 +28704,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="936" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -28732,7 +28732,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="937" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -28760,7 +28760,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="938" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -28788,7 +28788,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -28816,7 +28816,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28844,7 +28844,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="941" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -28872,7 +28872,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="942" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -28900,7 +28900,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="943" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -28928,7 +28928,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="944" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -28956,7 +28956,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="945" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -28984,7 +28984,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="946" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -29012,7 +29012,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="947" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -29040,7 +29040,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="948" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -29068,7 +29068,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="949" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -29096,7 +29096,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="950" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -29124,7 +29124,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="951" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -29152,7 +29152,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="952" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -29180,7 +29180,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="953" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -29208,7 +29208,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="954" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -29236,7 +29236,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="955" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -29264,7 +29264,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="956" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -29292,7 +29292,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="957" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -29320,7 +29320,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="958" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -29348,7 +29348,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="959" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -29376,7 +29376,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -29404,7 +29404,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -29432,7 +29432,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -29460,7 +29460,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -29488,7 +29488,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -29516,7 +29516,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -29544,7 +29544,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -29572,7 +29572,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -29600,7 +29600,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="968" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -29628,7 +29628,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -29656,7 +29656,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -29684,7 +29684,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -29712,7 +29712,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -29740,7 +29740,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -29768,7 +29768,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -29796,7 +29796,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -29824,7 +29824,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -29852,7 +29852,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="977" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -29880,7 +29880,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="978" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -29908,7 +29908,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="979" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -29936,7 +29936,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="980" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -29964,7 +29964,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="981" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -29992,7 +29992,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="982" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -30020,7 +30020,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="983" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -30048,7 +30048,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="984" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -30076,7 +30076,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -30104,7 +30104,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -30132,7 +30132,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -30160,7 +30160,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="988" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -30188,7 +30188,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="989" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -30216,7 +30216,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -30244,7 +30244,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -30272,7 +30272,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="992" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -30300,7 +30300,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -30328,7 +30328,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="994" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -30356,7 +30356,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="995" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -30384,7 +30384,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="996" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -30412,7 +30412,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -30440,7 +30440,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -30468,7 +30468,7 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -30496,7 +30496,7 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
